--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3429718.66</v>
+        <v>11550593.46</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137188.75</v>
+        <v>320849.82</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354214.92</v>
+        <v>353457.15</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153529.36</v>
+        <v>153615.7</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451913.37</v>
+        <v>450708.39</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153601.19</v>
+        <v>152708.21</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1511.37</v>
+        <v>1382.22</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>290233.36</v>
+        <v>291935.78</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400439.91</v>
+        <v>398964.02</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130038.08</v>
+        <v>124236.83</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>225556.52</v>
+        <v>225833.51</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124039.5</v>
+        <v>124233.87</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87134.60000000001</v>
+        <v>86902.75999999999</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>186257.54</v>
+        <v>186262.94</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200698.61</v>
+        <v>199868.91</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>134137.35</v>
+        <v>134119.57</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>141170.21</v>
+        <v>141868.21</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54886.29</v>
+        <v>54633.72</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39098.49</v>
+        <v>41872.05</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67388.78999999999</v>
+        <v>67285.53</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37008.97</v>
+        <v>36928.59</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73645.08</v>
+        <v>111249.91</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41874.48</v>
+        <v>41646.36</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13629.56</v>
+        <v>13679.51</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22973.58</v>
+        <v>23143.35</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6265.97</v>
+        <v>6266.28</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,117 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38471.56</v>
+        <v>38569.67</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>176457.3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>41381.22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8829.99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4699745.86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15782.32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>161373.37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>451780.94</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5398.33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6266.28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2522204.81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B33" t="n">

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,388 +436,520 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11550593.46</v>
+        <v>142566.35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>171714.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320849.82</v>
+        <v>352298.85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>352711.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353457.15</v>
+        <v>41823.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>56920.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153615.7</v>
+        <v>67310.59</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67262.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>450708.39</v>
+        <v>152905.72</v>
+      </c>
+      <c r="C6" t="n">
+        <v>152915.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152708.21</v>
+        <v>451139.08</v>
+      </c>
+      <c r="C7" t="n">
+        <v>451910.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1382.22</v>
+        <v>15715.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15716.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>291935.78</v>
+        <v>161821.49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>162096.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398964.02</v>
+        <v>13608.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13115.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>124236.83</v>
+        <v>110644.38</v>
+      </c>
+      <c r="C11" t="n">
+        <v>97946.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>225833.51</v>
+        <v>424372.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>388942.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124233.87</v>
+        <v>1429.02</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1393.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86902.75999999999</v>
+        <v>176292.67</v>
+      </c>
+      <c r="C14" t="n">
+        <v>175020.68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>186262.94</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>199868.91</v>
+        <v>199194.72</v>
+      </c>
+      <c r="C16" t="n">
+        <v>199456.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>134119.57</v>
+        <v>200355.67</v>
+      </c>
+      <c r="C17" t="n">
+        <v>200689.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>141868.21</v>
+        <v>290937.89</v>
+      </c>
+      <c r="C18" t="n">
+        <v>320077.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54633.72</v>
+        <v>399115.36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>419711.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41872.05</v>
+        <v>23006.82</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23193.57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67285.53</v>
+        <v>5407.05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5395.58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36928.59</v>
+        <v>119367.47</v>
+      </c>
+      <c r="C22" t="n">
+        <v>119179.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>111249.91</v>
+        <v>226850.25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>226105.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41646.36</v>
+        <v>44079.18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>42422.76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13679.51</v>
+        <v>6278.04</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8769.280000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23143.35</v>
+        <v>6278.04</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8769.280000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6266.28</v>
+        <v>41261.46</v>
+      </c>
+      <c r="C27" t="n">
+        <v>41477.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38569.67</v>
+        <v>8667.219999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8697.51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>38651.4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>38466.38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176457.3</v>
+        <v>134505.35</v>
+      </c>
+      <c r="C30" t="n">
+        <v>134399.26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41381.22</v>
+        <v>141173.13</v>
+      </c>
+      <c r="C31" t="n">
+        <v>141478.88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8829.99</v>
+        <v>36955.9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>36804.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4699745.86</v>
+        <v>123614.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>123664.98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15782.32</v>
+        <v>87083.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>87190.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>161373.37</v>
+        <v>2519220.59</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2522709.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>451780.94</v>
+        <v>4700735.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4951585.53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5398.33</v>
+        <v>786146.59</v>
+      </c>
+      <c r="C37" t="n">
+        <v>788234.37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6266.28</v>
+        <v>54808.78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>54903.93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2522204.81</v>
+        <v>332584.36</v>
+      </c>
+      <c r="C39" t="n">
+        <v>340839.09</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>12305621.17</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12611046.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,508 +443,381 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142566.35</v>
-      </c>
-      <c r="C2" t="n">
-        <v>171714.82</v>
+        <v>12602277.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352298.85</v>
-      </c>
-      <c r="C3" t="n">
-        <v>352711.1</v>
+        <v>350063.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41823.15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>56920.39</v>
+        <v>171714.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67310.59</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67262.34</v>
+        <v>352711.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152905.72</v>
-      </c>
-      <c r="C6" t="n">
-        <v>152915.14</v>
+        <v>56920.39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451139.08</v>
-      </c>
-      <c r="C7" t="n">
-        <v>451910.52</v>
+        <v>67262.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15715.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15716.18</v>
+        <v>152915.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161821.49</v>
-      </c>
-      <c r="C9" t="n">
-        <v>162096.04</v>
+        <v>451910.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13608.51</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13115.3</v>
+        <v>15716.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110644.38</v>
-      </c>
-      <c r="C11" t="n">
-        <v>97946.41</v>
+        <v>162096.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>424372.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>388942.39</v>
+        <v>13115.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1429.02</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1393.15</v>
+        <v>97946.41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176292.67</v>
-      </c>
-      <c r="C14" t="n">
-        <v>175020.68</v>
+        <v>388942.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+        <v>1393.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>199194.72</v>
-      </c>
-      <c r="C16" t="n">
-        <v>199456.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200355.67</v>
-      </c>
-      <c r="C17" t="n">
-        <v>200689.13</v>
+        <v>175020.68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>290937.89</v>
-      </c>
-      <c r="C18" t="n">
-        <v>320077.42</v>
+        <v>199456.88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399115.36</v>
-      </c>
-      <c r="C19" t="n">
-        <v>419711.1</v>
+        <v>200689.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23006.82</v>
-      </c>
-      <c r="C20" t="n">
-        <v>23193.57</v>
+        <v>320077.42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5407.05</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5395.58</v>
+        <v>419711.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119367.47</v>
-      </c>
-      <c r="C22" t="n">
-        <v>119179.1</v>
+        <v>23193.57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226850.25</v>
-      </c>
-      <c r="C23" t="n">
-        <v>226105.8</v>
+        <v>5395.58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44079.18</v>
-      </c>
-      <c r="C24" t="n">
-        <v>42422.76</v>
+        <v>119179.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6278.04</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8769.280000000001</v>
+        <v>226105.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6278.04</v>
-      </c>
-      <c r="C26" t="n">
-        <v>8769.280000000001</v>
+        <v>42422.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>41261.46</v>
-      </c>
-      <c r="C27" t="n">
-        <v>41477.86</v>
+        <v>8769.280000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8667.219999999999</v>
-      </c>
-      <c r="C28" t="n">
-        <v>8697.51</v>
+        <v>41477.86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38651.4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>38466.38</v>
+        <v>8697.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>134505.35</v>
-      </c>
-      <c r="C30" t="n">
-        <v>134399.26</v>
+        <v>38466.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141173.13</v>
-      </c>
-      <c r="C31" t="n">
-        <v>141478.88</v>
+        <v>134399.26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36955.9</v>
-      </c>
-      <c r="C32" t="n">
-        <v>36804.22</v>
+        <v>141478.88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>123614.05</v>
-      </c>
-      <c r="C33" t="n">
-        <v>123664.98</v>
+        <v>36804.22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87083.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>87190.08</v>
+        <v>123664.98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2519220.59</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2522709.04</v>
+        <v>87190.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4700735.6</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4951585.53</v>
+        <v>2522709.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>786146.59</v>
-      </c>
-      <c r="C37" t="n">
-        <v>788234.37</v>
+        <v>4951585.53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54808.78</v>
-      </c>
-      <c r="C38" t="n">
-        <v>54903.93</v>
+        <v>788234.37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>332584.36</v>
-      </c>
-      <c r="C39" t="n">
-        <v>340839.09</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>12305621.17</v>
-      </c>
-      <c r="C40" t="n">
-        <v>12611046.4</v>
+        <v>54903.93</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,385 +439,490 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12602277.12</v>
+        <v>171714.82</v>
+      </c>
+      <c r="C2" t="n">
+        <v>183982.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350063.25</v>
+        <v>352711.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>353916.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171714.82</v>
+        <v>56920.39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>56640.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352711.1</v>
+        <v>67262.34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67392.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56920.39</v>
+        <v>152915.14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>152779.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67262.34</v>
+        <v>451910.52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>450369.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152915.14</v>
+        <v>15716.18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15765.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>451910.52</v>
+        <v>162096.04</v>
+      </c>
+      <c r="C9" t="n">
+        <v>163183.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15716.18</v>
+        <v>13115.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13098.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162096.04</v>
+        <v>97946.41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>149791.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13115.3</v>
+        <v>388942.39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>286403.95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97946.41</v>
-      </c>
+        <v>1393.15</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>388942.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1393.15</v>
-      </c>
+        <v>175020.68</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
+        <v>199456.88</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>175020.68</v>
-      </c>
+        <v>200689.13</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>199456.88</v>
-      </c>
+        <v>320077.42</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>200689.13</v>
+        <v>419711.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>438745.35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320077.42</v>
+        <v>23193.57</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23136.87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>419711.1</v>
+        <v>5395.58</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5402.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23193.57</v>
+        <v>119179.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>119893.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5395.58</v>
+        <v>226105.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>246902.99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>119179.1</v>
+        <v>42422.76</v>
+      </c>
+      <c r="C24" t="n">
+        <v>44342.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>226105.8</v>
+        <v>8769.280000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8758.74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42422.76</v>
+        <v>41477.86</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41486.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8769.280000000001</v>
+        <v>8697.51</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8822.65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41477.86</v>
+        <v>38466.38</v>
+      </c>
+      <c r="C28" t="n">
+        <v>38601.49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8697.51</v>
-      </c>
+        <v>134399.26</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38466.38</v>
+        <v>141478.88</v>
+      </c>
+      <c r="C30" t="n">
+        <v>141372.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134399.26</v>
+        <v>36804.22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>76993.42999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141478.88</v>
+        <v>123664.98</v>
+      </c>
+      <c r="C32" t="n">
+        <v>123889.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36804.22</v>
+        <v>87190.08</v>
+      </c>
+      <c r="C33" t="n">
+        <v>86999.64999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123664.98</v>
+        <v>2522709.04</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2523074.61</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87190.08</v>
+        <v>4951585.53</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4953727.79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2522709.04</v>
+        <v>788234.37</v>
+      </c>
+      <c r="C36" t="n">
+        <v>787038.3100000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4951585.53</v>
+        <v>54903.93</v>
+      </c>
+      <c r="C37" t="n">
+        <v>54823.59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>788234.37</v>
+        <v>350063.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>400597.82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54903.93</v>
+        <v>12602277.12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11617336.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>183982.94</v>
       </c>
+      <c r="D2" t="n">
+        <v>183523.47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>353916.93</v>
       </c>
+      <c r="D3" t="n">
+        <v>353800.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>56640.22</v>
       </c>
+      <c r="D4" t="n">
+        <v>66680.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>67392.53</v>
       </c>
+      <c r="D5" t="n">
+        <v>67222.49000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>152779.73</v>
       </c>
+      <c r="D6" t="n">
+        <v>153426.78</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>450369.4</v>
       </c>
+      <c r="D7" t="n">
+        <v>451686.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>15765.09</v>
       </c>
+      <c r="D8" t="n">
+        <v>15700.64</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>163183.04</v>
       </c>
+      <c r="D9" t="n">
+        <v>161220.49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>13098.67</v>
       </c>
+      <c r="D10" t="n">
+        <v>13055.46</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>149791.54</v>
       </c>
+      <c r="D11" t="n">
+        <v>185376.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>286403.95</v>
       </c>
+      <c r="D12" t="n">
+        <v>260617.92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -598,6 +636,9 @@
         <v>1393.15</v>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1269.69</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -609,6 +650,9 @@
         <v>0</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -620,6 +664,9 @@
         <v>175020.68</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>173818.07</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -631,6 +678,9 @@
         <v>199456.88</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>199426.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -642,6 +692,9 @@
         <v>200689.13</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>199964.65</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -653,6 +706,9 @@
         <v>320077.42</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>330964.96</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -666,6 +722,9 @@
       <c r="C19" t="n">
         <v>438745.35</v>
       </c>
+      <c r="D19" t="n">
+        <v>405738.12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -679,6 +738,9 @@
       <c r="C20" t="n">
         <v>23136.87</v>
       </c>
+      <c r="D20" t="n">
+        <v>23188.73</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -692,6 +754,9 @@
       <c r="C21" t="n">
         <v>5402.1</v>
       </c>
+      <c r="D21" t="n">
+        <v>5412.44</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -705,6 +770,9 @@
       <c r="C22" t="n">
         <v>119893.54</v>
       </c>
+      <c r="D22" t="n">
+        <v>119465.03</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -718,6 +786,9 @@
       <c r="C23" t="n">
         <v>246902.99</v>
       </c>
+      <c r="D23" t="n">
+        <v>196266.94</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -731,6 +802,9 @@
       <c r="C24" t="n">
         <v>44342.64</v>
       </c>
+      <c r="D24" t="n">
+        <v>57030.49</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -744,6 +818,9 @@
       <c r="C25" t="n">
         <v>8758.74</v>
       </c>
+      <c r="D25" t="n">
+        <v>9752.32</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -757,6 +834,9 @@
       <c r="C26" t="n">
         <v>41486.82</v>
       </c>
+      <c r="D26" t="n">
+        <v>41318.02</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -770,6 +850,9 @@
       <c r="C27" t="n">
         <v>8822.65</v>
       </c>
+      <c r="D27" t="n">
+        <v>8867.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -783,6 +866,9 @@
       <c r="C28" t="n">
         <v>38601.49</v>
       </c>
+      <c r="D28" t="n">
+        <v>35094.52</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -794,6 +880,9 @@
         <v>134399.26</v>
       </c>
       <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>134027.72</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -807,6 +896,9 @@
       <c r="C30" t="n">
         <v>141372.46</v>
       </c>
+      <c r="D30" t="n">
+        <v>141566.69</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -820,6 +912,9 @@
       <c r="C31" t="n">
         <v>76993.42999999999</v>
       </c>
+      <c r="D31" t="n">
+        <v>76826.98</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -833,6 +928,9 @@
       <c r="C32" t="n">
         <v>123889.66</v>
       </c>
+      <c r="D32" t="n">
+        <v>123882.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -846,6 +944,9 @@
       <c r="C33" t="n">
         <v>86999.64999999999</v>
       </c>
+      <c r="D33" t="n">
+        <v>81963.94</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -859,6 +960,9 @@
       <c r="C34" t="n">
         <v>2523074.61</v>
       </c>
+      <c r="D34" t="n">
+        <v>2611507.85</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -872,6 +976,9 @@
       <c r="C35" t="n">
         <v>4953727.79</v>
       </c>
+      <c r="D35" t="n">
+        <v>4954159.19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -885,6 +992,9 @@
       <c r="C36" t="n">
         <v>787038.3100000001</v>
       </c>
+      <c r="D36" t="n">
+        <v>786733.73</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -898,6 +1008,9 @@
       <c r="C37" t="n">
         <v>54823.59</v>
       </c>
+      <c r="D37" t="n">
+        <v>54812.55</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -911,6 +1024,9 @@
       <c r="C38" t="n">
         <v>400597.82</v>
       </c>
+      <c r="D38" t="n">
+        <v>352371.38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -923,6 +1039,9 @@
       </c>
       <c r="C39" t="n">
         <v>11617336.73</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12685369.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>183523.47</v>
       </c>
+      <c r="E2" t="n">
+        <v>232660.85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>353800.08</v>
       </c>
+      <c r="E3" t="n">
+        <v>353367.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>66680.02</v>
       </c>
+      <c r="E4" t="n">
+        <v>66765.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>67222.49000000001</v>
       </c>
+      <c r="E5" t="n">
+        <v>67300.25999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>153426.78</v>
       </c>
+      <c r="E6" t="n">
+        <v>153234.85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>451686.34</v>
       </c>
+      <c r="E7" t="n">
+        <v>450848.27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>15700.64</v>
       </c>
+      <c r="E8" t="n">
+        <v>15735.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>161220.49</v>
       </c>
+      <c r="E9" t="n">
+        <v>159617.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>13055.46</v>
       </c>
+      <c r="E10" t="n">
+        <v>13127.12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>185376.04</v>
       </c>
+      <c r="E11" t="n">
+        <v>184566.37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -624,6 +659,9 @@
       </c>
       <c r="D12" t="n">
         <v>260617.92</v>
+      </c>
+      <c r="E12" t="n">
+        <v>213296.29</v>
       </c>
     </row>
     <row r="13">
@@ -639,6 +677,9 @@
       <c r="D13" t="n">
         <v>1269.69</v>
       </c>
+      <c r="E13" t="n">
+        <v>1359.47</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -653,6 +694,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -667,6 +711,9 @@
       <c r="D15" t="n">
         <v>173818.07</v>
       </c>
+      <c r="E15" t="n">
+        <v>171889.31</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -681,6 +728,9 @@
       <c r="D16" t="n">
         <v>199426.8</v>
       </c>
+      <c r="E16" t="n">
+        <v>198951.27</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -695,6 +745,9 @@
       <c r="D17" t="n">
         <v>199964.65</v>
       </c>
+      <c r="E17" t="n">
+        <v>199846.18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -709,6 +762,9 @@
       <c r="D18" t="n">
         <v>330964.96</v>
       </c>
+      <c r="E18" t="n">
+        <v>371524.59</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -725,6 +781,9 @@
       <c r="D19" t="n">
         <v>405738.12</v>
       </c>
+      <c r="E19" t="n">
+        <v>408018.18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -741,6 +800,9 @@
       <c r="D20" t="n">
         <v>23188.73</v>
       </c>
+      <c r="E20" t="n">
+        <v>23126.45</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -757,6 +819,9 @@
       <c r="D21" t="n">
         <v>5412.44</v>
       </c>
+      <c r="E21" t="n">
+        <v>5399.85</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -773,6 +838,9 @@
       <c r="D22" t="n">
         <v>119465.03</v>
       </c>
+      <c r="E22" t="n">
+        <v>119122.59</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -789,6 +857,9 @@
       <c r="D23" t="n">
         <v>196266.94</v>
       </c>
+      <c r="E23" t="n">
+        <v>196904.39</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -805,6 +876,9 @@
       <c r="D24" t="n">
         <v>57030.49</v>
       </c>
+      <c r="E24" t="n">
+        <v>59647.01</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -821,6 +895,9 @@
       <c r="D25" t="n">
         <v>9752.32</v>
       </c>
+      <c r="E25" t="n">
+        <v>9781.76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -837,6 +914,9 @@
       <c r="D26" t="n">
         <v>41318.02</v>
       </c>
+      <c r="E26" t="n">
+        <v>41544.99</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -853,6 +933,9 @@
       <c r="D27" t="n">
         <v>8867.9</v>
       </c>
+      <c r="E27" t="n">
+        <v>8860.33</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -868,6 +951,9 @@
       </c>
       <c r="D28" t="n">
         <v>35094.52</v>
+      </c>
+      <c r="E28" t="n">
+        <v>35112.84</v>
       </c>
     </row>
     <row r="29">
@@ -883,6 +969,9 @@
       <c r="D29" t="n">
         <v>134027.72</v>
       </c>
+      <c r="E29" t="n">
+        <v>134339.91</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -899,6 +988,9 @@
       <c r="D30" t="n">
         <v>141566.69</v>
       </c>
+      <c r="E30" t="n">
+        <v>141075.15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -915,6 +1007,9 @@
       <c r="D31" t="n">
         <v>76826.98</v>
       </c>
+      <c r="E31" t="n">
+        <v>76768.42999999999</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -931,6 +1026,9 @@
       <c r="D32" t="n">
         <v>123882.5</v>
       </c>
+      <c r="E32" t="n">
+        <v>124253.51</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -947,6 +1045,9 @@
       <c r="D33" t="n">
         <v>81963.94</v>
       </c>
+      <c r="E33" t="n">
+        <v>80634.59</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -963,6 +1064,7 @@
       <c r="D34" t="n">
         <v>2611507.85</v>
       </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -979,6 +1081,9 @@
       <c r="D35" t="n">
         <v>4954159.19</v>
       </c>
+      <c r="E35" t="n">
+        <v>4951390.12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -995,6 +1100,9 @@
       <c r="D36" t="n">
         <v>786733.73</v>
       </c>
+      <c r="E36" t="n">
+        <v>787073.61</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1011,6 +1119,9 @@
       <c r="D37" t="n">
         <v>54812.55</v>
       </c>
+      <c r="E37" t="n">
+        <v>54861.18</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1027,6 +1138,9 @@
       <c r="D38" t="n">
         <v>352371.38</v>
       </c>
+      <c r="E38" t="n">
+        <v>288914.43</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1042,6 +1156,9 @@
       </c>
       <c r="D39" t="n">
         <v>12685369.56</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10112004.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>232660.85</v>
       </c>
+      <c r="F2" t="n">
+        <v>308272.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>353367.21</v>
       </c>
+      <c r="F3" t="n">
+        <v>353850.76</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>66765.2</v>
       </c>
+      <c r="F4" t="n">
+        <v>66798.94</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>67300.25999999999</v>
       </c>
+      <c r="F5" t="n">
+        <v>67136.75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>153234.85</v>
       </c>
+      <c r="F6" t="n">
+        <v>153751.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>450848.27</v>
       </c>
+      <c r="F7" t="n">
+        <v>450112.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>15735.5</v>
       </c>
+      <c r="F8" t="n">
+        <v>15740.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>159617.35</v>
       </c>
+      <c r="F9" t="n">
+        <v>160493.01</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>13127.12</v>
       </c>
+      <c r="F10" t="n">
+        <v>13141.44</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>184566.37</v>
       </c>
+      <c r="F11" t="n">
+        <v>184790.43</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -662,6 +697,9 @@
       </c>
       <c r="E12" t="n">
         <v>213296.29</v>
+      </c>
+      <c r="F12" t="n">
+        <v>182317.47</v>
       </c>
     </row>
     <row r="13">
@@ -680,6 +718,9 @@
       <c r="E13" t="n">
         <v>1359.47</v>
       </c>
+      <c r="F13" t="n">
+        <v>1381.01</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -697,6 +738,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -714,6 +758,9 @@
       <c r="E15" t="n">
         <v>171889.31</v>
       </c>
+      <c r="F15" t="n">
+        <v>171372.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -731,6 +778,9 @@
       <c r="E16" t="n">
         <v>198951.27</v>
       </c>
+      <c r="F16" t="n">
+        <v>209957.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -748,6 +798,9 @@
       <c r="E17" t="n">
         <v>199846.18</v>
       </c>
+      <c r="F17" t="n">
+        <v>200671.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -765,6 +818,9 @@
       <c r="E18" t="n">
         <v>371524.59</v>
       </c>
+      <c r="F18" t="n">
+        <v>377381.14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -784,6 +840,9 @@
       <c r="E19" t="n">
         <v>408018.18</v>
       </c>
+      <c r="F19" t="n">
+        <v>413159.85</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -803,6 +862,9 @@
       <c r="E20" t="n">
         <v>23126.45</v>
       </c>
+      <c r="F20" t="n">
+        <v>23061.37</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -822,6 +884,9 @@
       <c r="E21" t="n">
         <v>5399.85</v>
       </c>
+      <c r="F21" t="n">
+        <v>5368.16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -841,6 +906,9 @@
       <c r="E22" t="n">
         <v>119122.59</v>
       </c>
+      <c r="F22" t="n">
+        <v>119402.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -860,6 +928,9 @@
       <c r="E23" t="n">
         <v>196904.39</v>
       </c>
+      <c r="F23" t="n">
+        <v>195731.58</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -879,6 +950,9 @@
       <c r="E24" t="n">
         <v>59647.01</v>
       </c>
+      <c r="F24" t="n">
+        <v>59109.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -898,6 +972,9 @@
       <c r="E25" t="n">
         <v>9781.76</v>
       </c>
+      <c r="F25" t="n">
+        <v>9794.190000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -917,6 +994,9 @@
       <c r="E26" t="n">
         <v>41544.99</v>
       </c>
+      <c r="F26" t="n">
+        <v>41402.58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -936,6 +1016,9 @@
       <c r="E27" t="n">
         <v>8860.33</v>
       </c>
+      <c r="F27" t="n">
+        <v>8710.120000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -954,6 +1037,9 @@
       </c>
       <c r="E28" t="n">
         <v>35112.84</v>
+      </c>
+      <c r="F28" t="n">
+        <v>35122.35</v>
       </c>
     </row>
     <row r="29">
@@ -972,6 +1058,9 @@
       <c r="E29" t="n">
         <v>134339.91</v>
       </c>
+      <c r="F29" t="n">
+        <v>134358.34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -991,6 +1080,9 @@
       <c r="E30" t="n">
         <v>141075.15</v>
       </c>
+      <c r="F30" t="n">
+        <v>141222.28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1010,6 +1102,9 @@
       <c r="E31" t="n">
         <v>76768.42999999999</v>
       </c>
+      <c r="F31" t="n">
+        <v>76763.33</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1029,6 +1124,9 @@
       <c r="E32" t="n">
         <v>124253.51</v>
       </c>
+      <c r="F32" t="n">
+        <v>123395.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1048,6 +1146,9 @@
       <c r="E33" t="n">
         <v>80634.59</v>
       </c>
+      <c r="F33" t="n">
+        <v>86783.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1065,6 +1166,7 @@
         <v>2611507.85</v>
       </c>
       <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1084,6 +1186,9 @@
       <c r="E35" t="n">
         <v>4951390.12</v>
       </c>
+      <c r="F35" t="n">
+        <v>4955029.64</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1103,6 +1208,9 @@
       <c r="E36" t="n">
         <v>787073.61</v>
       </c>
+      <c r="F36" t="n">
+        <v>788002.37</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1122,6 +1230,9 @@
       <c r="E37" t="n">
         <v>54861.18</v>
       </c>
+      <c r="F37" t="n">
+        <v>54872.98</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1141,6 +1252,9 @@
       <c r="E38" t="n">
         <v>288914.43</v>
       </c>
+      <c r="F38" t="n">
+        <v>291098.84</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1159,6 +1273,9 @@
       </c>
       <c r="E39" t="n">
         <v>10112004.98</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10188459.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>308272.53</v>
       </c>
+      <c r="G2" t="n">
+        <v>308199.36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>353850.76</v>
       </c>
+      <c r="G3" t="n">
+        <v>352142.49</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>66798.94</v>
       </c>
+      <c r="G4" t="n">
+        <v>66628.42999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>67136.75</v>
       </c>
+      <c r="G5" t="n">
+        <v>67127.03999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>153751.36</v>
       </c>
+      <c r="G6" t="n">
+        <v>153227.64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>450112.12</v>
       </c>
+      <c r="G7" t="n">
+        <v>450726.63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>15740.3</v>
       </c>
+      <c r="G8" t="n">
+        <v>15778.54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>160493.01</v>
       </c>
+      <c r="G9" t="n">
+        <v>158992.68</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>13141.44</v>
       </c>
+      <c r="G10" t="n">
+        <v>13175.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>184790.43</v>
       </c>
+      <c r="G11" t="n">
+        <v>184712.68</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -700,6 +735,9 @@
       </c>
       <c r="F12" t="n">
         <v>182317.47</v>
+      </c>
+      <c r="G12" t="n">
+        <v>155179.67</v>
       </c>
     </row>
     <row r="13">
@@ -721,6 +759,9 @@
       <c r="F13" t="n">
         <v>1381.01</v>
       </c>
+      <c r="G13" t="n">
+        <v>1381.89</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -741,6 +782,9 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -761,6 +805,9 @@
       <c r="F15" t="n">
         <v>171372.2</v>
       </c>
+      <c r="G15" t="n">
+        <v>172242.59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -781,6 +828,9 @@
       <c r="F16" t="n">
         <v>209957.1</v>
       </c>
+      <c r="G16" t="n">
+        <v>209204.88</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -801,6 +851,9 @@
       <c r="F17" t="n">
         <v>200671.7</v>
       </c>
+      <c r="G17" t="n">
+        <v>187306.51</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -821,6 +874,9 @@
       <c r="F18" t="n">
         <v>377381.14</v>
       </c>
+      <c r="G18" t="n">
+        <v>379187.36</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -843,6 +899,9 @@
       <c r="F19" t="n">
         <v>413159.85</v>
       </c>
+      <c r="G19" t="n">
+        <v>511698.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -865,6 +924,9 @@
       <c r="F20" t="n">
         <v>23061.37</v>
       </c>
+      <c r="G20" t="n">
+        <v>23234.57</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -887,6 +949,9 @@
       <c r="F21" t="n">
         <v>5368.16</v>
       </c>
+      <c r="G21" t="n">
+        <v>5422.01</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -909,6 +974,9 @@
       <c r="F22" t="n">
         <v>119402.5</v>
       </c>
+      <c r="G22" t="n">
+        <v>114146.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -931,6 +999,9 @@
       <c r="F23" t="n">
         <v>195731.58</v>
       </c>
+      <c r="G23" t="n">
+        <v>195681.88</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -953,6 +1024,9 @@
       <c r="F24" t="n">
         <v>59109.95</v>
       </c>
+      <c r="G24" t="n">
+        <v>59217.35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -975,6 +1049,9 @@
       <c r="F25" t="n">
         <v>9794.190000000001</v>
       </c>
+      <c r="G25" t="n">
+        <v>9763.450000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -997,6 +1074,9 @@
       <c r="F26" t="n">
         <v>41402.58</v>
       </c>
+      <c r="G26" t="n">
+        <v>41173.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1019,6 +1099,9 @@
       <c r="F27" t="n">
         <v>8710.120000000001</v>
       </c>
+      <c r="G27" t="n">
+        <v>8735.32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1040,6 +1123,9 @@
       </c>
       <c r="F28" t="n">
         <v>35122.35</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35009.68</v>
       </c>
     </row>
     <row r="29">
@@ -1061,6 +1147,9 @@
       <c r="F29" t="n">
         <v>134358.34</v>
       </c>
+      <c r="G29" t="n">
+        <v>134631.68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1083,6 +1172,9 @@
       <c r="F30" t="n">
         <v>141222.28</v>
       </c>
+      <c r="G30" t="n">
+        <v>141552.45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1105,6 +1197,9 @@
       <c r="F31" t="n">
         <v>76763.33</v>
       </c>
+      <c r="G31" t="n">
+        <v>76738.92999999999</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1127,6 +1222,9 @@
       <c r="F32" t="n">
         <v>123395.63</v>
       </c>
+      <c r="G32" t="n">
+        <v>77436.50999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1149,6 +1247,9 @@
       <c r="F33" t="n">
         <v>86783.95</v>
       </c>
+      <c r="G33" t="n">
+        <v>87919.48</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1167,6 +1268,7 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1189,6 +1291,9 @@
       <c r="F35" t="n">
         <v>4955029.64</v>
       </c>
+      <c r="G35" t="n">
+        <v>4951813.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1211,6 +1316,9 @@
       <c r="F36" t="n">
         <v>788002.37</v>
       </c>
+      <c r="G36" t="n">
+        <v>787697.4300000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1233,6 +1341,9 @@
       <c r="F37" t="n">
         <v>54872.98</v>
       </c>
+      <c r="G37" t="n">
+        <v>54847.63</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1255,6 +1366,9 @@
       <c r="F38" t="n">
         <v>291098.84</v>
       </c>
+      <c r="G38" t="n">
+        <v>291198.12</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1276,6 +1390,9 @@
       </c>
       <c r="F39" t="n">
         <v>10188459.43</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10191934.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>308199.36</v>
       </c>
+      <c r="H2" t="n">
+        <v>331376.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>352142.49</v>
       </c>
+      <c r="H3" t="n">
+        <v>351984.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>66628.42999999999</v>
       </c>
+      <c r="H4" t="n">
+        <v>66867.85000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>67127.03999999999</v>
       </c>
+      <c r="H5" t="n">
+        <v>67274.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>153227.64</v>
       </c>
+      <c r="H6" t="n">
+        <v>152807.32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>450726.63</v>
       </c>
+      <c r="H7" t="n">
+        <v>450941.83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>15778.54</v>
       </c>
+      <c r="H8" t="n">
+        <v>15670.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>158992.68</v>
       </c>
+      <c r="H9" t="n">
+        <v>158163.83</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>13175.6</v>
       </c>
+      <c r="H10" t="n">
+        <v>13185.93</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>184712.68</v>
       </c>
+      <c r="H11" t="n">
+        <v>185099.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -738,6 +773,9 @@
       </c>
       <c r="G12" t="n">
         <v>155179.67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>111144.92</v>
       </c>
     </row>
     <row r="13">
@@ -762,6 +800,9 @@
       <c r="G13" t="n">
         <v>1381.89</v>
       </c>
+      <c r="H13" t="n">
+        <v>1319.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -785,6 +826,9 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -808,6 +852,9 @@
       <c r="G15" t="n">
         <v>172242.59</v>
       </c>
+      <c r="H15" t="n">
+        <v>172208.35</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -831,6 +878,9 @@
       <c r="G16" t="n">
         <v>209204.88</v>
       </c>
+      <c r="H16" t="n">
+        <v>209504.19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -854,6 +904,9 @@
       <c r="G17" t="n">
         <v>187306.51</v>
       </c>
+      <c r="H17" t="n">
+        <v>187616.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -877,6 +930,9 @@
       <c r="G18" t="n">
         <v>379187.36</v>
       </c>
+      <c r="H18" t="n">
+        <v>380712.26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -902,6 +958,9 @@
       <c r="G19" t="n">
         <v>511698.22</v>
       </c>
+      <c r="H19" t="n">
+        <v>780492.61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -927,6 +986,9 @@
       <c r="G20" t="n">
         <v>23234.57</v>
       </c>
+      <c r="H20" t="n">
+        <v>23120.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -952,6 +1014,9 @@
       <c r="G21" t="n">
         <v>5422.01</v>
       </c>
+      <c r="H21" t="n">
+        <v>5420.68</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -977,6 +1042,9 @@
       <c r="G22" t="n">
         <v>114146.7</v>
       </c>
+      <c r="H22" t="n">
+        <v>114939.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1002,6 +1070,9 @@
       <c r="G23" t="n">
         <v>195681.88</v>
       </c>
+      <c r="H23" t="n">
+        <v>196912.18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1027,6 +1098,9 @@
       <c r="G24" t="n">
         <v>59217.35</v>
       </c>
+      <c r="H24" t="n">
+        <v>70365.45</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1052,6 +1126,9 @@
       <c r="G25" t="n">
         <v>9763.450000000001</v>
       </c>
+      <c r="H25" t="n">
+        <v>9761.200000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1077,6 +1154,9 @@
       <c r="G26" t="n">
         <v>41173.75</v>
       </c>
+      <c r="H26" t="n">
+        <v>41434.68</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1102,6 +1182,9 @@
       <c r="G27" t="n">
         <v>8735.32</v>
       </c>
+      <c r="H27" t="n">
+        <v>8906.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1126,6 +1209,9 @@
       </c>
       <c r="G28" t="n">
         <v>35009.68</v>
+      </c>
+      <c r="H28" t="n">
+        <v>35062.21</v>
       </c>
     </row>
     <row r="29">
@@ -1150,6 +1236,9 @@
       <c r="G29" t="n">
         <v>134631.68</v>
       </c>
+      <c r="H29" t="n">
+        <v>134266.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1175,6 +1264,9 @@
       <c r="G30" t="n">
         <v>141552.45</v>
       </c>
+      <c r="H30" t="n">
+        <v>141659.09</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1200,6 +1292,9 @@
       <c r="G31" t="n">
         <v>76738.92999999999</v>
       </c>
+      <c r="H31" t="n">
+        <v>77042.72</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1225,6 +1320,9 @@
       <c r="G32" t="n">
         <v>77436.50999999999</v>
       </c>
+      <c r="H32" t="n">
+        <v>77899.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1249,6 +1347,9 @@
       </c>
       <c r="G33" t="n">
         <v>87919.48</v>
+      </c>
+      <c r="H33" t="n">
+        <v>88198.53</v>
       </c>
     </row>
     <row r="34">
@@ -1269,6 +1370,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1294,6 +1396,9 @@
       <c r="G35" t="n">
         <v>4951813.25</v>
       </c>
+      <c r="H35" t="n">
+        <v>4955077.32</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1319,6 +1424,9 @@
       <c r="G36" t="n">
         <v>787697.4300000001</v>
       </c>
+      <c r="H36" t="n">
+        <v>787027.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1344,6 +1452,9 @@
       <c r="G37" t="n">
         <v>54847.63</v>
       </c>
+      <c r="H37" t="n">
+        <v>54685.74</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1369,6 +1480,9 @@
       <c r="G38" t="n">
         <v>291198.12</v>
       </c>
+      <c r="H38" t="n">
+        <v>298804.28</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1393,6 +1507,9 @@
       </c>
       <c r="G39" t="n">
         <v>10191934.28</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10458149.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>331376.19</v>
       </c>
+      <c r="I2" t="n">
+        <v>307815.82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>351984.58</v>
       </c>
+      <c r="I3" t="n">
+        <v>352059.85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>66867.85000000001</v>
       </c>
+      <c r="I4" t="n">
+        <v>66658.72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>67274.06</v>
       </c>
+      <c r="I5" t="n">
+        <v>67377.53999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>152807.32</v>
       </c>
+      <c r="I6" t="n">
+        <v>153650.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>450941.83</v>
       </c>
+      <c r="I7" t="n">
+        <v>451544.39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>15670.01</v>
       </c>
+      <c r="I8" t="n">
+        <v>15668.15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>158163.83</v>
       </c>
+      <c r="I9" t="n">
+        <v>162640.66</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>13185.93</v>
       </c>
+      <c r="I10" t="n">
+        <v>13119.97</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>185099.52</v>
       </c>
+      <c r="I11" t="n">
+        <v>184373.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -776,6 +811,9 @@
       </c>
       <c r="H12" t="n">
         <v>111144.92</v>
+      </c>
+      <c r="I12" t="n">
+        <v>93134.85000000001</v>
       </c>
     </row>
     <row r="13">
@@ -803,6 +841,9 @@
       <c r="H13" t="n">
         <v>1319.75</v>
       </c>
+      <c r="I13" t="n">
+        <v>1287.85</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -829,6 +870,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -855,6 +899,9 @@
       <c r="H15" t="n">
         <v>172208.35</v>
       </c>
+      <c r="I15" t="n">
+        <v>173026.74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -881,6 +928,9 @@
       <c r="H16" t="n">
         <v>209504.19</v>
       </c>
+      <c r="I16" t="n">
+        <v>209521.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -907,6 +957,9 @@
       <c r="H17" t="n">
         <v>187616.5</v>
       </c>
+      <c r="I17" t="n">
+        <v>188079.83</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -933,6 +986,9 @@
       <c r="H18" t="n">
         <v>380712.26</v>
       </c>
+      <c r="I18" t="n">
+        <v>386014.42</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -961,6 +1017,9 @@
       <c r="H19" t="n">
         <v>780492.61</v>
       </c>
+      <c r="I19" t="n">
+        <v>879200.77</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -989,6 +1048,9 @@
       <c r="H20" t="n">
         <v>23120.6</v>
       </c>
+      <c r="I20" t="n">
+        <v>23098.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1017,6 +1079,9 @@
       <c r="H21" t="n">
         <v>5420.68</v>
       </c>
+      <c r="I21" t="n">
+        <v>5420.04</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1045,6 +1110,9 @@
       <c r="H22" t="n">
         <v>114939.95</v>
       </c>
+      <c r="I22" t="n">
+        <v>99836.45</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1073,6 +1141,9 @@
       <c r="H23" t="n">
         <v>196912.18</v>
       </c>
+      <c r="I23" t="n">
+        <v>196171.73</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1101,6 +1172,9 @@
       <c r="H24" t="n">
         <v>70365.45</v>
       </c>
+      <c r="I24" t="n">
+        <v>70586.03</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1129,6 +1203,9 @@
       <c r="H25" t="n">
         <v>9761.200000000001</v>
       </c>
+      <c r="I25" t="n">
+        <v>9768.98</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1157,6 +1234,9 @@
       <c r="H26" t="n">
         <v>41434.68</v>
       </c>
+      <c r="I26" t="n">
+        <v>41553.14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1185,6 +1265,9 @@
       <c r="H27" t="n">
         <v>8906.1</v>
       </c>
+      <c r="I27" t="n">
+        <v>8692.700000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1212,6 +1295,9 @@
       </c>
       <c r="H28" t="n">
         <v>35062.21</v>
+      </c>
+      <c r="I28" t="n">
+        <v>35143.82</v>
       </c>
     </row>
     <row r="29">
@@ -1239,6 +1325,9 @@
       <c r="H29" t="n">
         <v>134266.8</v>
       </c>
+      <c r="I29" t="n">
+        <v>134618.02</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1267,6 +1356,9 @@
       <c r="H30" t="n">
         <v>141659.09</v>
       </c>
+      <c r="I30" t="n">
+        <v>141169.84</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1295,6 +1387,9 @@
       <c r="H31" t="n">
         <v>77042.72</v>
       </c>
+      <c r="I31" t="n">
+        <v>96916.67</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1323,6 +1418,9 @@
       <c r="H32" t="n">
         <v>77899.2</v>
       </c>
+      <c r="I32" t="n">
+        <v>77604.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1350,6 +1448,9 @@
       </c>
       <c r="H33" t="n">
         <v>88198.53</v>
+      </c>
+      <c r="I33" t="n">
+        <v>87703.22</v>
       </c>
     </row>
     <row r="34">
@@ -1371,6 +1472,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1399,6 +1501,9 @@
       <c r="H35" t="n">
         <v>4955077.32</v>
       </c>
+      <c r="I35" t="n">
+        <v>5099186.78</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1427,6 +1532,9 @@
       <c r="H36" t="n">
         <v>787027.5</v>
       </c>
+      <c r="I36" t="n">
+        <v>786308.0699999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1455,6 +1563,9 @@
       <c r="H37" t="n">
         <v>54685.74</v>
       </c>
+      <c r="I37" t="n">
+        <v>54782.16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1483,6 +1594,9 @@
       <c r="H38" t="n">
         <v>298804.28</v>
       </c>
+      <c r="I38" t="n">
+        <v>304963.83</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1510,6 +1624,9 @@
       </c>
       <c r="H39" t="n">
         <v>10458149.65</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10673734.19</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>307815.82</v>
       </c>
+      <c r="J2" t="n">
+        <v>307684.83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>352059.85</v>
       </c>
+      <c r="J3" t="n">
+        <v>352403.35</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>66658.72</v>
       </c>
+      <c r="J4" t="n">
+        <v>67060.74000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>67377.53999999999</v>
       </c>
+      <c r="J5" t="n">
+        <v>67292.75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>153650.04</v>
       </c>
+      <c r="J6" t="n">
+        <v>153390.68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>451544.39</v>
       </c>
+      <c r="J7" t="n">
+        <v>450872.53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>15668.15</v>
       </c>
+      <c r="J8" t="n">
+        <v>15670.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>162640.66</v>
       </c>
+      <c r="J9" t="n">
+        <v>164242.53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>13119.97</v>
       </c>
+      <c r="J10" t="n">
+        <v>13093.53</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>184373.5</v>
       </c>
+      <c r="J11" t="n">
+        <v>184624.84</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -814,6 +849,9 @@
       </c>
       <c r="I12" t="n">
         <v>93134.85000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>84686.77</v>
       </c>
     </row>
     <row r="13">
@@ -844,6 +882,9 @@
       <c r="I13" t="n">
         <v>1287.85</v>
       </c>
+      <c r="J13" t="n">
+        <v>1239.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -873,6 +914,9 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -902,6 +946,9 @@
       <c r="I15" t="n">
         <v>173026.74</v>
       </c>
+      <c r="J15" t="n">
+        <v>171583.65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -931,6 +978,9 @@
       <c r="I16" t="n">
         <v>209521.1</v>
       </c>
+      <c r="J16" t="n">
+        <v>199729.47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -960,6 +1010,9 @@
       <c r="I17" t="n">
         <v>188079.83</v>
       </c>
+      <c r="J17" t="n">
+        <v>187808.01</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -989,6 +1042,9 @@
       <c r="I18" t="n">
         <v>386014.42</v>
       </c>
+      <c r="J18" t="n">
+        <v>387721.19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1020,6 +1076,9 @@
       <c r="I19" t="n">
         <v>879200.77</v>
       </c>
+      <c r="J19" t="n">
+        <v>880376.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1051,6 +1110,9 @@
       <c r="I20" t="n">
         <v>23098.04</v>
       </c>
+      <c r="J20" t="n">
+        <v>23138.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1082,6 +1144,9 @@
       <c r="I21" t="n">
         <v>5420.04</v>
       </c>
+      <c r="J21" t="n">
+        <v>5394.37</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1113,6 +1178,9 @@
       <c r="I22" t="n">
         <v>99836.45</v>
       </c>
+      <c r="J22" t="n">
+        <v>94390.19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1144,6 +1212,9 @@
       <c r="I23" t="n">
         <v>196171.73</v>
       </c>
+      <c r="J23" t="n">
+        <v>196613.53</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1175,6 +1246,9 @@
       <c r="I24" t="n">
         <v>70586.03</v>
       </c>
+      <c r="J24" t="n">
+        <v>70148.05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1206,6 +1280,9 @@
       <c r="I25" t="n">
         <v>9768.98</v>
       </c>
+      <c r="J25" t="n">
+        <v>9785.870000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1237,6 +1314,9 @@
       <c r="I26" t="n">
         <v>41553.14</v>
       </c>
+      <c r="J26" t="n">
+        <v>19973.89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1268,6 +1348,9 @@
       <c r="I27" t="n">
         <v>8692.700000000001</v>
       </c>
+      <c r="J27" t="n">
+        <v>8723.860000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1298,6 +1381,9 @@
       </c>
       <c r="I28" t="n">
         <v>35143.82</v>
+      </c>
+      <c r="J28" t="n">
+        <v>35095.41</v>
       </c>
     </row>
     <row r="29">
@@ -1328,6 +1414,9 @@
       <c r="I29" t="n">
         <v>134618.02</v>
       </c>
+      <c r="J29" t="n">
+        <v>133990.19</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1359,6 +1448,9 @@
       <c r="I30" t="n">
         <v>141169.84</v>
       </c>
+      <c r="J30" t="n">
+        <v>142067.72</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1390,6 +1482,9 @@
       <c r="I31" t="n">
         <v>96916.67</v>
       </c>
+      <c r="J31" t="n">
+        <v>101674.59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1421,6 +1516,9 @@
       <c r="I32" t="n">
         <v>77604.3</v>
       </c>
+      <c r="J32" t="n">
+        <v>77989.85000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1451,6 +1549,9 @@
       </c>
       <c r="I33" t="n">
         <v>87703.22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>88150.64</v>
       </c>
     </row>
     <row r="34">
@@ -1473,6 +1574,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1504,6 +1606,9 @@
       <c r="I35" t="n">
         <v>5099186.78</v>
       </c>
+      <c r="J35" t="n">
+        <v>5241398.84</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1535,6 +1640,9 @@
       <c r="I36" t="n">
         <v>786308.0699999999</v>
       </c>
+      <c r="J36" t="n">
+        <v>786175.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1566,6 +1674,9 @@
       <c r="I37" t="n">
         <v>54782.16</v>
       </c>
+      <c r="J37" t="n">
+        <v>54800.47</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1597,6 +1708,9 @@
       <c r="I38" t="n">
         <v>304963.83</v>
       </c>
+      <c r="J38" t="n">
+        <v>307971.21</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1627,6 +1741,9 @@
       </c>
       <c r="I39" t="n">
         <v>10673734.19</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10778992.31</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>307684.83</v>
       </c>
+      <c r="K2" t="n">
+        <v>307841.35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>352403.35</v>
       </c>
+      <c r="K3" t="n">
+        <v>353146.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>67060.74000000001</v>
       </c>
+      <c r="K4" t="n">
+        <v>66768.60000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>67292.75</v>
       </c>
+      <c r="K5" t="n">
+        <v>67167.56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>153390.68</v>
       </c>
+      <c r="K6" t="n">
+        <v>153018.23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>450872.53</v>
       </c>
+      <c r="K7" t="n">
+        <v>450861.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>15670.89</v>
       </c>
+      <c r="K8" t="n">
+        <v>15653.86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>164242.53</v>
       </c>
+      <c r="K9" t="n">
+        <v>161293.48</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>13093.53</v>
       </c>
+      <c r="K10" t="n">
+        <v>1561.31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>184624.84</v>
       </c>
+      <c r="K11" t="n">
+        <v>185195.59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -852,6 +887,9 @@
       </c>
       <c r="J12" t="n">
         <v>84686.77</v>
+      </c>
+      <c r="K12" t="n">
+        <v>83364.33</v>
       </c>
     </row>
     <row r="13">
@@ -885,6 +923,9 @@
       <c r="J13" t="n">
         <v>1239.09</v>
       </c>
+      <c r="K13" t="n">
+        <v>1237.17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -917,6 +958,9 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -949,6 +993,9 @@
       <c r="J15" t="n">
         <v>171583.65</v>
       </c>
+      <c r="K15" t="n">
+        <v>172530.57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -981,6 +1028,9 @@
       <c r="J16" t="n">
         <v>199729.47</v>
       </c>
+      <c r="K16" t="n">
+        <v>200121.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1013,6 +1063,9 @@
       <c r="J17" t="n">
         <v>187808.01</v>
       </c>
+      <c r="K17" t="n">
+        <v>188298.83</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1045,6 +1098,9 @@
       <c r="J18" t="n">
         <v>387721.19</v>
       </c>
+      <c r="K18" t="n">
+        <v>387716.17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1079,6 +1135,9 @@
       <c r="J19" t="n">
         <v>880376.09</v>
       </c>
+      <c r="K19" t="n">
+        <v>879903.24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1113,6 +1172,9 @@
       <c r="J20" t="n">
         <v>23138.1</v>
       </c>
+      <c r="K20" t="n">
+        <v>23215.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1147,6 +1209,9 @@
       <c r="J21" t="n">
         <v>5394.37</v>
       </c>
+      <c r="K21" t="n">
+        <v>5418.63</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1181,6 +1246,9 @@
       <c r="J22" t="n">
         <v>94390.19</v>
       </c>
+      <c r="K22" t="n">
+        <v>94279.60000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1215,6 +1283,9 @@
       <c r="J23" t="n">
         <v>196613.53</v>
       </c>
+      <c r="K23" t="n">
+        <v>197020.51</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1249,6 +1320,9 @@
       <c r="J24" t="n">
         <v>70148.05</v>
       </c>
+      <c r="K24" t="n">
+        <v>70133.53999999999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1283,6 +1357,9 @@
       <c r="J25" t="n">
         <v>9785.870000000001</v>
       </c>
+      <c r="K25" t="n">
+        <v>9786.74</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1317,6 +1394,9 @@
       <c r="J26" t="n">
         <v>19973.89</v>
       </c>
+      <c r="K26" t="n">
+        <v>19867.93</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1351,6 +1431,9 @@
       <c r="J27" t="n">
         <v>8723.860000000001</v>
       </c>
+      <c r="K27" t="n">
+        <v>8744.049999999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1384,6 +1467,9 @@
       </c>
       <c r="J28" t="n">
         <v>35095.41</v>
+      </c>
+      <c r="K28" t="n">
+        <v>35085.2</v>
       </c>
     </row>
     <row r="29">
@@ -1417,6 +1503,9 @@
       <c r="J29" t="n">
         <v>133990.19</v>
       </c>
+      <c r="K29" t="n">
+        <v>134526.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1451,6 +1540,9 @@
       <c r="J30" t="n">
         <v>142067.72</v>
       </c>
+      <c r="K30" t="n">
+        <v>141324.71</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1485,6 +1577,9 @@
       <c r="J31" t="n">
         <v>101674.59</v>
       </c>
+      <c r="K31" t="n">
+        <v>101688.41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1519,6 +1614,9 @@
       <c r="J32" t="n">
         <v>77989.85000000001</v>
       </c>
+      <c r="K32" t="n">
+        <v>77465.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1552,6 +1650,9 @@
       </c>
       <c r="J33" t="n">
         <v>88150.64</v>
+      </c>
+      <c r="K33" t="n">
+        <v>87993.88</v>
       </c>
     </row>
     <row r="34">
@@ -1575,6 +1676,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1609,6 +1711,9 @@
       <c r="J35" t="n">
         <v>5241398.84</v>
       </c>
+      <c r="K35" t="n">
+        <v>5240417.94</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1643,6 +1748,9 @@
       <c r="J36" t="n">
         <v>786175.8</v>
       </c>
+      <c r="K36" t="n">
+        <v>787831.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1677,6 +1785,9 @@
       <c r="J37" t="n">
         <v>54800.47</v>
       </c>
+      <c r="K37" t="n">
+        <v>54691.09</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1711,6 +1822,9 @@
       <c r="J38" t="n">
         <v>307971.21</v>
       </c>
+      <c r="K38" t="n">
+        <v>307576.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1744,6 +1858,9 @@
       </c>
       <c r="J39" t="n">
         <v>10778992.31</v>
+      </c>
+      <c r="K39" t="n">
+        <v>10765170.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>307841.35</v>
       </c>
+      <c r="L2" t="n">
+        <v>244628.45</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>353146.14</v>
       </c>
+      <c r="L3" t="n">
+        <v>352190.85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>66768.60000000001</v>
       </c>
+      <c r="L4" t="n">
+        <v>66596.83</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>67167.56</v>
       </c>
+      <c r="L5" t="n">
+        <v>67101.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>153018.23</v>
       </c>
+      <c r="L6" t="n">
+        <v>152764.43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>450861.03</v>
       </c>
+      <c r="L7" t="n">
+        <v>451023.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>15653.86</v>
       </c>
+      <c r="L8" t="n">
+        <v>15727.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>161293.48</v>
       </c>
+      <c r="L9" t="n">
+        <v>162723.47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>1561.31</v>
       </c>
+      <c r="L10" t="n">
+        <v>1554.71</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>185195.59</v>
       </c>
+      <c r="L11" t="n">
+        <v>184835.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -890,6 +925,9 @@
       </c>
       <c r="K12" t="n">
         <v>83364.33</v>
+      </c>
+      <c r="L12" t="n">
+        <v>85979.03</v>
       </c>
     </row>
     <row r="13">
@@ -926,6 +964,9 @@
       <c r="K13" t="n">
         <v>1237.17</v>
       </c>
+      <c r="L13" t="n">
+        <v>1365.48</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -961,6 +1002,9 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -996,6 +1040,9 @@
       <c r="K15" t="n">
         <v>172530.57</v>
       </c>
+      <c r="L15" t="n">
+        <v>173338.01</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1031,6 +1078,9 @@
       <c r="K16" t="n">
         <v>200121.95</v>
       </c>
+      <c r="L16" t="n">
+        <v>192457.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1066,6 +1116,9 @@
       <c r="K17" t="n">
         <v>188298.83</v>
       </c>
+      <c r="L17" t="n">
+        <v>187921.33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1101,6 +1154,9 @@
       <c r="K18" t="n">
         <v>387716.17</v>
       </c>
+      <c r="L18" t="n">
+        <v>377643.99</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1138,6 +1194,9 @@
       <c r="K19" t="n">
         <v>879903.24</v>
       </c>
+      <c r="L19" t="n">
+        <v>848982.73</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1175,6 +1234,9 @@
       <c r="K20" t="n">
         <v>23215.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>23001.44</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1212,6 +1274,9 @@
       <c r="K21" t="n">
         <v>5418.63</v>
       </c>
+      <c r="L21" t="n">
+        <v>5396.28</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1249,6 +1314,9 @@
       <c r="K22" t="n">
         <v>94279.60000000001</v>
       </c>
+      <c r="L22" t="n">
+        <v>84549.67999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1286,6 +1354,9 @@
       <c r="K23" t="n">
         <v>197020.51</v>
       </c>
+      <c r="L23" t="n">
+        <v>186774.61</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1323,6 +1394,9 @@
       <c r="K24" t="n">
         <v>70133.53999999999</v>
       </c>
+      <c r="L24" t="n">
+        <v>69888.99000000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1360,6 +1434,9 @@
       <c r="K25" t="n">
         <v>9786.74</v>
       </c>
+      <c r="L25" t="n">
+        <v>9789.690000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1397,6 +1474,9 @@
       <c r="K26" t="n">
         <v>19867.93</v>
       </c>
+      <c r="L26" t="n">
+        <v>20055.16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1434,6 +1514,9 @@
       <c r="K27" t="n">
         <v>8744.049999999999</v>
       </c>
+      <c r="L27" t="n">
+        <v>8791.92</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1470,6 +1553,9 @@
       </c>
       <c r="K28" t="n">
         <v>35085.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>35104.16</v>
       </c>
     </row>
     <row r="29">
@@ -1506,6 +1592,9 @@
       <c r="K29" t="n">
         <v>134526.12</v>
       </c>
+      <c r="L29" t="n">
+        <v>134583.21</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1543,6 +1632,9 @@
       <c r="K30" t="n">
         <v>141324.71</v>
       </c>
+      <c r="L30" t="n">
+        <v>141793.32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1580,6 +1672,9 @@
       <c r="K31" t="n">
         <v>101688.41</v>
       </c>
+      <c r="L31" t="n">
+        <v>104627.18</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1617,6 +1712,9 @@
       <c r="K32" t="n">
         <v>77465.7</v>
       </c>
+      <c r="L32" t="n">
+        <v>78105.37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1653,6 +1751,9 @@
       </c>
       <c r="K33" t="n">
         <v>87993.88</v>
+      </c>
+      <c r="L33" t="n">
+        <v>87948.94</v>
       </c>
     </row>
     <row r="34">
@@ -1677,6 +1778,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1714,6 +1816,9 @@
       <c r="K35" t="n">
         <v>5240417.94</v>
       </c>
+      <c r="L35" t="n">
+        <v>5236658.47</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1751,6 +1856,9 @@
       <c r="K36" t="n">
         <v>787831.1</v>
       </c>
+      <c r="L36" t="n">
+        <v>788029.14</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1788,6 +1896,9 @@
       <c r="K37" t="n">
         <v>54691.09</v>
       </c>
+      <c r="L37" t="n">
+        <v>54936.29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1825,6 +1936,9 @@
       <c r="K38" t="n">
         <v>307576.3</v>
       </c>
+      <c r="L38" t="n">
+        <v>303910.54</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1861,6 +1975,9 @@
       </c>
       <c r="K39" t="n">
         <v>10765170.46</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10636868.91</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SUPV.xlsx
+++ b/backend/src/excel_handler/files/SUPV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>244628.45</v>
       </c>
+      <c r="M2" t="n">
+        <v>243926.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>352190.85</v>
       </c>
+      <c r="M3" t="n">
+        <v>396586.26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>66596.83</v>
       </c>
+      <c r="M4" t="n">
+        <v>56632.87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>67101.05</v>
       </c>
+      <c r="M5" t="n">
+        <v>67106.03999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>152764.43</v>
       </c>
+      <c r="M6" t="n">
+        <v>152749.24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>451023.95</v>
       </c>
+      <c r="M7" t="n">
+        <v>451497.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>15727.3</v>
       </c>
+      <c r="M8" t="n">
+        <v>15702.27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>162723.47</v>
       </c>
+      <c r="M9" t="n">
+        <v>161043.36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>1554.71</v>
       </c>
+      <c r="M10" t="n">
+        <v>1552.83</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>184835.5</v>
       </c>
+      <c r="M11" t="n">
+        <v>251009.54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -928,6 +963,9 @@
       </c>
       <c r="L12" t="n">
         <v>85979.03</v>
+      </c>
+      <c r="M12" t="n">
+        <v>85760.69</v>
       </c>
     </row>
     <row r="13">
@@ -967,6 +1005,9 @@
       <c r="L13" t="n">
         <v>1365.48</v>
       </c>
+      <c r="M13" t="n">
+        <v>1372.66</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1005,6 +1046,9 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1043,6 +1087,9 @@
       <c r="L15" t="n">
         <v>173338.01</v>
       </c>
+      <c r="M15" t="n">
+        <v>172952.33</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1081,6 +1128,9 @@
       <c r="L16" t="n">
         <v>192457.95</v>
       </c>
+      <c r="M16" t="n">
+        <v>192612.6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1119,6 +1169,9 @@
       <c r="L17" t="n">
         <v>187921.33</v>
       </c>
+      <c r="M17" t="n">
+        <v>187833.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1157,6 +1210,9 @@
       <c r="L18" t="n">
         <v>377643.99</v>
       </c>
+      <c r="M18" t="n">
+        <v>366900.66</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1197,6 +1253,9 @@
       <c r="L19" t="n">
         <v>848982.73</v>
       </c>
+      <c r="M19" t="n">
+        <v>850595.28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1237,6 +1296,9 @@
       <c r="L20" t="n">
         <v>23001.44</v>
       </c>
+      <c r="M20" t="n">
+        <v>23206.16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1277,6 +1339,9 @@
       <c r="L21" t="n">
         <v>5396.28</v>
       </c>
+      <c r="M21" t="n">
+        <v>5396.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1317,6 +1382,9 @@
       <c r="L22" t="n">
         <v>84549.67999999999</v>
       </c>
+      <c r="M22" t="n">
+        <v>84338.39</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1357,6 +1425,9 @@
       <c r="L23" t="n">
         <v>186774.61</v>
       </c>
+      <c r="M23" t="n">
+        <v>185819.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1397,6 +1468,9 @@
       <c r="L24" t="n">
         <v>69888.99000000001</v>
       </c>
+      <c r="M24" t="n">
+        <v>61498.46</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1437,6 +1511,9 @@
       <c r="L25" t="n">
         <v>9789.690000000001</v>
       </c>
+      <c r="M25" t="n">
+        <v>9754.639999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1477,6 +1554,9 @@
       <c r="L26" t="n">
         <v>20055.16</v>
       </c>
+      <c r="M26" t="n">
+        <v>20113.14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1517,6 +1597,9 @@
       <c r="L27" t="n">
         <v>8791.92</v>
       </c>
+      <c r="M27" t="n">
+        <v>8886.120000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1556,6 +1639,9 @@
       </c>
       <c r="L28" t="n">
         <v>35104.16</v>
+      </c>
+      <c r="M28" t="n">
+        <v>35176.26</v>
       </c>
     </row>
     <row r="29">
@@ -1595,6 +1681,9 @@
       <c r="L29" t="n">
         <v>134583.21</v>
       </c>
+      <c r="M29" t="n">
+        <v>134216.31</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1635,6 +1724,9 @@
       <c r="L30" t="n">
         <v>141793.32</v>
       </c>
+      <c r="M30" t="n">
+        <v>142074.33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1675,6 +1767,9 @@
       <c r="L31" t="n">
         <v>104627.18</v>
       </c>
+      <c r="M31" t="n">
+        <v>104961.93</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1715,6 +1810,9 @@
       <c r="L32" t="n">
         <v>78105.37</v>
       </c>
+      <c r="M32" t="n">
+        <v>78100.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1754,6 +1852,9 @@
       </c>
       <c r="L33" t="n">
         <v>87948.94</v>
+      </c>
+      <c r="M33" t="n">
+        <v>85648.28999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1779,6 +1880,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1819,6 +1921,9 @@
       <c r="L35" t="n">
         <v>5236658.47</v>
       </c>
+      <c r="M35" t="n">
+        <v>5241569.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1859,6 +1964,9 @@
       <c r="L36" t="n">
         <v>788029.14</v>
       </c>
+      <c r="M36" t="n">
+        <v>786977.58</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1899,6 +2007,9 @@
       <c r="L37" t="n">
         <v>54936.29</v>
       </c>
+      <c r="M37" t="n">
+        <v>54885.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1939,6 +2050,9 @@
       <c r="L38" t="n">
         <v>303910.54</v>
       </c>
+      <c r="M38" t="n">
+        <v>306241.65</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1978,6 +2092,9 @@
       </c>
       <c r="L39" t="n">
         <v>10636868.91</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10718457.82</v>
       </c>
     </row>
   </sheetData>
